--- a/data/trans_orig/P3A$otra-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P3A$otra-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5042</v>
+        <v>5234</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.002719553838841607</v>
+        <v>0.002719553838841608</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01581306417271495</v>
+        <v>0.01641529832633424</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1547</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4313</v>
+        <v>4302</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00489591963079621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001565839294974029</v>
+        <v>0.001547306828919355</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01364619455279324</v>
+        <v>0.01361215903503631</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -783,19 +783,19 @@
         <v>2415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6474</v>
+        <v>6432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003802964066210889</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0008799240999028415</v>
+        <v>0.0007971817981849686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01019689854783573</v>
+        <v>0.01013039479283413</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8270</v>
+        <v>9110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24862</v>
+        <v>26726</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04659928724660097</v>
+        <v>0.04659928724660098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02593705672377292</v>
+        <v>0.02857092494975164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07797537861544396</v>
+        <v>0.08382184718578438</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -833,19 +833,19 @@
         <v>16932</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11703</v>
+        <v>11699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23811</v>
+        <v>23112</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05357163081270767</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03702837024595141</v>
+        <v>0.03701501557286208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07533708899051456</v>
+        <v>0.07312410639236266</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -854,19 +854,19 @@
         <v>31790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23078</v>
+        <v>23461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42850</v>
+        <v>44095</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05007016900562192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03634828200641316</v>
+        <v>0.03695133340240198</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06749026093723152</v>
+        <v>0.06945162428473806</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>7569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3816</v>
+        <v>3874</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13566</v>
+        <v>13729</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02373738996616421</v>
+        <v>0.02373738996616422</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01196853118819544</v>
+        <v>0.01214909602806571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04254634461873924</v>
+        <v>0.0430586081886418</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>6209</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3265</v>
+        <v>3258</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11452</v>
+        <v>10963</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01964472562450967</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01033027061515131</v>
+        <v>0.01030794716904383</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03623374716449209</v>
+        <v>0.03468601295444902</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -925,19 +925,19 @@
         <v>13777</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8355</v>
+        <v>8549</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20231</v>
+        <v>21206</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02170003281722838</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0131597943811452</v>
+        <v>0.01346516201426432</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03186417633519727</v>
+        <v>0.03339958850467412</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>6222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3011</v>
+        <v>3004</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11947</v>
+        <v>11930</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01951403379080047</v>
+        <v>0.01951403379080048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009443401115786983</v>
+        <v>0.009420247064867436</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03746918904991457</v>
+        <v>0.03741573018213636</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -975,19 +975,19 @@
         <v>10566</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6329</v>
+        <v>6561</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16314</v>
+        <v>16234</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03343078555137083</v>
+        <v>0.03343078555137084</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02002537173897023</v>
+        <v>0.02075809679540349</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05161565215802515</v>
+        <v>0.05136352492666533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -996,19 +996,19 @@
         <v>16788</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10908</v>
+        <v>11493</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23567</v>
+        <v>24136</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02644189088398708</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01718002599383096</v>
+        <v>0.01810168169921152</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03711889701302258</v>
+        <v>0.0380144766143588</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>179523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161606</v>
+        <v>160803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>198060</v>
+        <v>199524</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5630419301105599</v>
+        <v>0.56304193011056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.506849217120925</v>
+        <v>0.5043308951800061</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.621179757692374</v>
+        <v>0.6257723221115666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>135</v>
@@ -1046,19 +1046,19 @@
         <v>79042</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65440</v>
+        <v>67704</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90783</v>
+        <v>93434</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2500841564999373</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2070474450199764</v>
+        <v>0.2142132335838077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2872318241941834</v>
+        <v>0.2956199557998239</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>341</v>
@@ -1067,19 +1067,19 @@
         <v>258565</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>236162</v>
+        <v>236256</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>282011</v>
+        <v>282440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4072493450966427</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.371963228151963</v>
+        <v>0.3721119610730622</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4441770538706719</v>
+        <v>0.4448536112586013</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>98533</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>82433</v>
+        <v>81282</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>118410</v>
+        <v>116601</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3090300549000988</v>
+        <v>0.3090300549000989</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2585355052997461</v>
+        <v>0.2549278944782135</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3713732340095275</v>
+        <v>0.3656968776562027</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>139</v>
@@ -1117,19 +1117,19 @@
         <v>94880</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>81575</v>
+        <v>81155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110514</v>
+        <v>110529</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.300194072951765</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2580981257462575</v>
+        <v>0.2567692337163976</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.349658850243645</v>
+        <v>0.3497078968761493</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>224</v>
@@ -1138,19 +1138,19 @@
         <v>193412</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>169768</v>
+        <v>171500</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>217797</v>
+        <v>218516</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3046314408219582</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2673911966857015</v>
+        <v>0.2701194398745673</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3430382634977142</v>
+        <v>0.3441701236379125</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>183501</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165790</v>
+        <v>165136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>201554</v>
+        <v>200511</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5755177985330653</v>
+        <v>0.5755177985330654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5199694650975404</v>
+        <v>0.5179202959835687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6321370615130738</v>
+        <v>0.6288679747789737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>502</v>
@@ -1188,19 +1188,19 @@
         <v>290022</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>276029</v>
+        <v>277853</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>298290</v>
+        <v>298131</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9176146879990174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8733418569814949</v>
+        <v>0.8791106635133746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.943773224104818</v>
+        <v>0.9432707585439346</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>685</v>
@@ -1209,19 +1209,19 @@
         <v>473523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>450949</v>
+        <v>451401</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>494577</v>
+        <v>493180</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7458160407535358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7102604407814433</v>
+        <v>0.7109730879386256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7789762126552142</v>
+        <v>0.7767770914876991</v>
       </c>
     </row>
     <row r="11">
@@ -1289,19 +1289,19 @@
         <v>14919</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8191</v>
+        <v>8872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23325</v>
+        <v>24866</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0281148692582774</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01543648715932763</v>
+        <v>0.01671946654091812</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04395550294584721</v>
+        <v>0.04685965841730777</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -1310,19 +1310,19 @@
         <v>35224</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26081</v>
+        <v>27186</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45392</v>
+        <v>45994</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06445384056770144</v>
+        <v>0.06445384056770143</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04772500605084605</v>
+        <v>0.04974553820537873</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08306107421914206</v>
+        <v>0.08416187534714119</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -1331,19 +1331,19 @@
         <v>50143</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39946</v>
+        <v>39420</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>63391</v>
+        <v>63572</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04655167174879354</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03708525649523586</v>
+        <v>0.03659727697432652</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0588507143164451</v>
+        <v>0.05901878528921799</v>
       </c>
     </row>
     <row r="13">
@@ -1360,19 +1360,19 @@
         <v>12829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6129</v>
+        <v>7061</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22115</v>
+        <v>24003</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02417547330775726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01155066961606021</v>
+        <v>0.01330559067972662</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04167461880012674</v>
+        <v>0.0452325396110721</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1381,19 +1381,19 @@
         <v>16459</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10774</v>
+        <v>11011</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23211</v>
+        <v>24047</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03011724082553215</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01971467411464399</v>
+        <v>0.02014896071960599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0424716465542224</v>
+        <v>0.04400156742713054</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -1402,19 +1402,19 @@
         <v>29288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21140</v>
+        <v>19842</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41866</v>
+        <v>41714</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02719006591240181</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01962605647242407</v>
+        <v>0.01842129127931734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03886737708897323</v>
+        <v>0.03872642256842469</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>5123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1829</v>
+        <v>1833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10847</v>
+        <v>11928</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009653317792280597</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003447345420728247</v>
+        <v>0.003453871650593753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02044046830749757</v>
+        <v>0.02247865449680464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1452,19 +1452,19 @@
         <v>10226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6401</v>
+        <v>5955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16834</v>
+        <v>16101</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01871150732013852</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01171334791063558</v>
+        <v>0.01089764355334005</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03080454064987692</v>
+        <v>0.02946281622713745</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1473,19 +1473,19 @@
         <v>15348</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9666</v>
+        <v>9408</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23197</v>
+        <v>23322</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01424904643370936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008973999708042763</v>
+        <v>0.008734639316520056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0215359078346355</v>
+        <v>0.02165135375737766</v>
       </c>
     </row>
     <row r="15">
@@ -1502,19 +1502,19 @@
         <v>278156</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>248210</v>
+        <v>249190</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>308587</v>
+        <v>309366</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5241825155020754</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4677504963979433</v>
+        <v>0.4695958176688488</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5815289266113258</v>
+        <v>0.5829980849668274</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>224</v>
@@ -1523,19 +1523,19 @@
         <v>171614</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>151670</v>
+        <v>152967</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>189220</v>
+        <v>190030</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.314027402966479</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2775324004424821</v>
+        <v>0.2799068761706943</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3462442330870352</v>
+        <v>0.3477260965931867</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>443</v>
@@ -1544,19 +1544,19 @@
         <v>449770</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>412946</v>
+        <v>416692</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>485256</v>
+        <v>484591</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4175590156457061</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3833723398549193</v>
+        <v>0.3868499717798444</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4505038710525898</v>
+        <v>0.4498858775094917</v>
       </c>
     </row>
     <row r="16">
@@ -1573,19 +1573,19 @@
         <v>169824</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>143669</v>
+        <v>141905</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202647</v>
+        <v>199710</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3200318943508018</v>
+        <v>0.3200318943508017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2707431046682051</v>
+        <v>0.2674191095361672</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3818864783689305</v>
+        <v>0.3763518405067242</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>170</v>
@@ -1594,19 +1594,19 @@
         <v>144899</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125933</v>
+        <v>126733</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167083</v>
+        <v>164587</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2651424765972887</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2304377840700077</v>
+        <v>0.2319019398053987</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3057357132172594</v>
+        <v>0.3011680870219656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -1615,19 +1615,19 @@
         <v>314723</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>281487</v>
+        <v>280151</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>354654</v>
+        <v>352536</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2921834077955837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2613276716604793</v>
+        <v>0.2600875061170607</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3292546826098288</v>
+        <v>0.3272889388042445</v>
       </c>
     </row>
     <row r="17">
@@ -1644,19 +1644,19 @@
         <v>388911</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>359927</v>
+        <v>359686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>413686</v>
+        <v>412872</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7329000512545049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6782793345447072</v>
+        <v>0.6778260153270393</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7795873008041136</v>
+        <v>0.7780534445702535</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>665</v>
@@ -1665,19 +1665,19 @@
         <v>497943</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>478910</v>
+        <v>479643</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>509605</v>
+        <v>510899</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9111591558526252</v>
+        <v>0.9111591558526254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8763309713709028</v>
+        <v>0.877673465016759</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9324991513622021</v>
+        <v>0.9348666480897958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>954</v>
@@ -1686,19 +1686,19 @@
         <v>886854</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>854483</v>
+        <v>848187</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>917057</v>
+        <v>915841</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8233409136451111</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7932877103198009</v>
+        <v>0.7874429627589599</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8513808764689862</v>
+        <v>0.8502517659262904</v>
       </c>
     </row>
     <row r="18">
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2784</v>
+        <v>3601</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.001753119119511661</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.008826458756440843</v>
+        <v>0.01141754977706544</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3327</v>
+        <v>3951</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001826554869213834</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009367208862025547</v>
+        <v>0.01112592361494356</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4174</v>
+        <v>4309</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001792013856025712</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006225662515667612</v>
+        <v>0.006425802687832537</v>
       </c>
     </row>
     <row r="19">
@@ -1790,19 +1790,19 @@
         <v>11907</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7211</v>
+        <v>7582</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18212</v>
+        <v>18381</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03775463731305805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02286562751021066</v>
+        <v>0.02404001177849203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05774691442797954</v>
+        <v>0.05828096049787028</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1811,19 +1811,19 @@
         <v>16494</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11754</v>
+        <v>11942</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22493</v>
+        <v>23624</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04644380184449647</v>
+        <v>0.04644380184449646</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03309719161679379</v>
+        <v>0.033627517151917</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06333522084577217</v>
+        <v>0.06651975876371574</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -1832,19 +1832,19 @@
         <v>28401</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21537</v>
+        <v>21025</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37599</v>
+        <v>36811</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04235679316151299</v>
+        <v>0.04235679316151301</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0321192759070771</v>
+        <v>0.03135587411721472</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05607385535179604</v>
+        <v>0.05489980611820967</v>
       </c>
     </row>
     <row r="20">
@@ -1861,19 +1861,19 @@
         <v>13711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9021</v>
+        <v>8633</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21337</v>
+        <v>21018</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.043473578248632</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02860386681899799</v>
+        <v>0.02737197097223666</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06765535172110633</v>
+        <v>0.06664337352555623</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -1882,19 +1882,19 @@
         <v>19442</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14005</v>
+        <v>13511</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27135</v>
+        <v>26426</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05474597107832593</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03943625351339371</v>
+        <v>0.03804390677007643</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07640640986175047</v>
+        <v>0.07441030691044113</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>54</v>
@@ -1903,19 +1903,19 @@
         <v>33153</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25662</v>
+        <v>24810</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42955</v>
+        <v>43607</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04944392308438225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03827113870694525</v>
+        <v>0.03700130129153759</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06406260577010378</v>
+        <v>0.06503446704526897</v>
       </c>
     </row>
     <row r="21">
@@ -1932,19 +1932,19 @@
         <v>7268</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4007</v>
+        <v>3966</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12074</v>
+        <v>12262</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02304532490773892</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01270569116330614</v>
+        <v>0.01257672845476084</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03828366337847393</v>
+        <v>0.0388808344647283</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -1953,19 +1953,19 @@
         <v>14368</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21167</v>
+        <v>20911</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.04045856574093852</v>
+        <v>0.04045856574093853</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02679664937195181</v>
+        <v>0.02679150437825062</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05960323137521086</v>
+        <v>0.05888220175946295</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -1974,19 +1974,19 @@
         <v>21636</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15632</v>
+        <v>15347</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29714</v>
+        <v>29676</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03226812738214414</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0233125645397924</v>
+        <v>0.02288892920685793</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04431516490875276</v>
+        <v>0.04425869179843728</v>
       </c>
     </row>
     <row r="22">
@@ -2003,19 +2003,19 @@
         <v>136811</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>120567</v>
+        <v>120665</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153320</v>
+        <v>154708</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.43379159209145</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3822866973804171</v>
+        <v>0.3825976163188194</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4861383562407714</v>
+        <v>0.490538378964304</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>161</v>
@@ -2024,19 +2024,19 @@
         <v>108366</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94485</v>
+        <v>95537</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>123757</v>
+        <v>126299</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3051384704034266</v>
+        <v>0.3051384704034267</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2660539460150148</v>
+        <v>0.2690148164974481</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3484773078031173</v>
+        <v>0.3556368454343704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>325</v>
@@ -2045,19 +2045,19 @@
         <v>245177</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>224571</v>
+        <v>223518</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>268191</v>
+        <v>266549</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3656513567148147</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3349212450288741</v>
+        <v>0.3333495184348513</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3999743117452141</v>
+        <v>0.3975258788237547</v>
       </c>
     </row>
     <row r="23">
@@ -2074,19 +2074,19 @@
         <v>79227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>63536</v>
+        <v>63895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96564</v>
+        <v>96303</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2512075633108987</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.201454633389562</v>
+        <v>0.2025932272068758</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3061787139112405</v>
+        <v>0.3053506839513023</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>91</v>
@@ -2095,19 +2095,19 @@
         <v>79930</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>64976</v>
+        <v>64222</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>94031</v>
+        <v>95664</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2250677420852659</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1829604423663124</v>
+        <v>0.1808382258143679</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2647759732627871</v>
+        <v>0.2693728933529522</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>163</v>
@@ -2116,19 +2116,19 @@
         <v>159156</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>138153</v>
+        <v>136682</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>181660</v>
+        <v>182300</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2373627879362518</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2060383387786425</v>
+        <v>0.2038455143026871</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2709234396913126</v>
+        <v>0.2718782040138755</v>
       </c>
     </row>
     <row r="24">
@@ -2145,19 +2145,19 @@
         <v>240290</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>224154</v>
+        <v>224202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>254693</v>
+        <v>253522</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7618963746698683</v>
+        <v>0.7618963746698684</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7107323057127815</v>
+        <v>0.7108845897746744</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.807564939633046</v>
+        <v>0.8038529152432555</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>477</v>
@@ -2166,19 +2166,19 @@
         <v>318735</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>307340</v>
+        <v>307252</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>327200</v>
+        <v>327477</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8975008873509172</v>
+        <v>0.8975008873509169</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8654163180449588</v>
+        <v>0.8651662562409138</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9213362382851468</v>
+        <v>0.9221177940191043</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>745</v>
@@ -2187,19 +2187,19 @@
         <v>559025</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>542055</v>
+        <v>541022</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>575174</v>
+        <v>575850</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8337183661690515</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8084103143405222</v>
+        <v>0.8068692567012298</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8578022316976319</v>
+        <v>0.8588103402625977</v>
       </c>
     </row>
     <row r="25">
@@ -2220,19 +2220,19 @@
         <v>7139</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3547</v>
+        <v>3362</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14903</v>
+        <v>14090</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01913315018619699</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009504653906522548</v>
+        <v>0.009010458343567224</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03993883564223076</v>
+        <v>0.03776098177930239</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2241,19 +2241,19 @@
         <v>4168</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1625</v>
+        <v>1351</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11697</v>
+        <v>10408</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.009878539944300203</v>
+        <v>0.009878539944300204</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0038503243971193</v>
+        <v>0.00320238624869999</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0277195264780241</v>
+        <v>0.02466573378499777</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2262,19 +2262,19 @@
         <v>11308</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5923</v>
+        <v>5592</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19160</v>
+        <v>19239</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01422174812061885</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007449478751213825</v>
+        <v>0.007032471703358456</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02409747865537228</v>
+        <v>0.02419702508683183</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>9544</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5308</v>
+        <v>5111</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16486</v>
+        <v>16215</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02557831313022835</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01422515416361669</v>
+        <v>0.01369704701810145</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04418060611355917</v>
+        <v>0.04345622385285151</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -2312,19 +2312,19 @@
         <v>19372</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13995</v>
+        <v>14028</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26535</v>
+        <v>26287</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04591045789858179</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03316755813254543</v>
+        <v>0.03324453187115434</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06288562039411751</v>
+        <v>0.06229823588502713</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>54</v>
@@ -2333,19 +2333,19 @@
         <v>28917</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21825</v>
+        <v>21878</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37891</v>
+        <v>37309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03636853932050581</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02744924164997891</v>
+        <v>0.02751525679574945</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04765533429808975</v>
+        <v>0.04692272847068749</v>
       </c>
     </row>
     <row r="27">
@@ -2362,19 +2362,19 @@
         <v>18685</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11599</v>
+        <v>11461</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31393</v>
+        <v>30944</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05007309787890799</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03108385486752</v>
+        <v>0.03071551995678735</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08413158577403411</v>
+        <v>0.08292817465331193</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>36</v>
@@ -2383,19 +2383,19 @@
         <v>18442</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13222</v>
+        <v>13188</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26051</v>
+        <v>27077</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.0437061946799887</v>
+        <v>0.04370619467998871</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03133423386324905</v>
+        <v>0.03125334542636349</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06173878012508345</v>
+        <v>0.06417004021756563</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>56</v>
@@ -2404,19 +2404,19 @@
         <v>37127</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>27463</v>
+        <v>27134</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>50838</v>
+        <v>50292</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.04669419582845284</v>
+        <v>0.04669419582845283</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03454010156746094</v>
+        <v>0.0341265554592307</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06393897078272735</v>
+        <v>0.06325198336126994</v>
       </c>
     </row>
     <row r="28">
@@ -2433,19 +2433,19 @@
         <v>11342</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5298</v>
+        <v>5575</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26940</v>
+        <v>25068</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03039487469585167</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01419897610280014</v>
+        <v>0.01494041562821023</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.072198055544719</v>
+        <v>0.06718161482898284</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2454,19 +2454,19 @@
         <v>10030</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6445</v>
+        <v>6308</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14932</v>
+        <v>14810</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.02376898581682716</v>
+        <v>0.02376898581682717</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01527415814690308</v>
+        <v>0.01494975373263549</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03538617765324054</v>
+        <v>0.03509777934110034</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -2475,19 +2475,19 @@
         <v>21371</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>14064</v>
+        <v>14496</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35586</v>
+        <v>35335</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02687852949317542</v>
+        <v>0.02687852949317543</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01768856845244132</v>
+        <v>0.01823134873169567</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04475617784869317</v>
+        <v>0.04444003414293358</v>
       </c>
     </row>
     <row r="29">
@@ -2504,19 +2504,19 @@
         <v>189003</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>165499</v>
+        <v>163000</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>218258</v>
+        <v>215066</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5065129842859424</v>
+        <v>0.5065129842859423</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4435248512579836</v>
+        <v>0.4368279770189888</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5849138256836973</v>
+        <v>0.5763615470560665</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>106</v>
@@ -2525,19 +2525,19 @@
         <v>82960</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>67450</v>
+        <v>69066</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>98902</v>
+        <v>99213</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1966047205189344</v>
+        <v>0.1966047205189345</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1598480874263188</v>
+        <v>0.163678353315941</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2343855190567288</v>
+        <v>0.2351224860984679</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>260</v>
@@ -2546,19 +2546,19 @@
         <v>271963</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>243216</v>
+        <v>241309</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>302563</v>
+        <v>303575</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3420453247064659</v>
+        <v>0.3420453247064658</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3058908272767838</v>
+        <v>0.3034928372369665</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3805312722828244</v>
+        <v>0.3818044066919953</v>
       </c>
     </row>
     <row r="30">
@@ -2575,19 +2575,19 @@
         <v>63417</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43727</v>
+        <v>42743</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>93083</v>
+        <v>87478</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1699527767624965</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1171851755327448</v>
+        <v>0.1145489326418322</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2494557230867628</v>
+        <v>0.2344339246688049</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -2596,19 +2596,19 @@
         <v>69082</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>51810</v>
+        <v>49113</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>94752</v>
+        <v>89761</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1637163514097113</v>
+        <v>0.1637163514097114</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1227828363168001</v>
+        <v>0.1163926902937914</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2245520111487467</v>
+        <v>0.2127239960585865</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>84</v>
@@ -2617,19 +2617,19 @@
         <v>132499</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>103373</v>
+        <v>103979</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168925</v>
+        <v>166813</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1666431190287943</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1300115585819564</v>
+        <v>0.1307740112023493</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2124559803073537</v>
+        <v>0.2097993253969225</v>
       </c>
     </row>
     <row r="31">
@@ -2646,19 +2646,19 @@
         <v>240911</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>212808</v>
+        <v>215818</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>264665</v>
+        <v>265995</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6456226986209831</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.570309303354078</v>
+        <v>0.5783770073834402</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7092817867575404</v>
+        <v>0.7128450709115219</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>541</v>
@@ -2667,19 +2667,19 @@
         <v>372803</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>352346</v>
+        <v>354155</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>386707</v>
+        <v>385223</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.8835012857312454</v>
+        <v>0.8835012857312455</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.8350203465921516</v>
+        <v>0.839307164978207</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9164519205578386</v>
+        <v>0.9129361787421971</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>729</v>
@@ -2688,19 +2688,19 @@
         <v>613715</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>581765</v>
+        <v>578394</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>644896</v>
+        <v>642071</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.771864361268323</v>
+        <v>0.7718643612683229</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7316811293766999</v>
+        <v>0.7274413922893154</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8110809081503016</v>
+        <v>0.8075276568793497</v>
       </c>
     </row>
     <row r="32">
@@ -2768,19 +2768,19 @@
         <v>8473</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>4684</v>
+        <v>4810</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>14274</v>
+        <v>14441</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0412935014218718</v>
+        <v>0.04129350142187178</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02283080718903131</v>
+        <v>0.02344148907604727</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06956766078739092</v>
+        <v>0.07038298536802085</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>19</v>
@@ -2789,19 +2789,19 @@
         <v>7681</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>4525</v>
+        <v>5089</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11590</v>
+        <v>12049</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.03355526994985731</v>
+        <v>0.03355526994985732</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01976512077641652</v>
+        <v>0.02222863024350024</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0506304621172421</v>
+        <v>0.05263418586026127</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>33</v>
@@ -2810,19 +2810,19 @@
         <v>16154</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>11100</v>
+        <v>11075</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>23198</v>
+        <v>22923</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03721282548647437</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02557117019769148</v>
+        <v>0.02551190565478936</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05343883055569247</v>
+        <v>0.05280490721481088</v>
       </c>
     </row>
     <row r="34">
@@ -2839,19 +2839,19 @@
         <v>2569</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6036</v>
+        <v>6716</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01252048840514799</v>
+        <v>0.01252048840514798</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003553252704778125</v>
+        <v>0.003647776556952605</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02941794857015512</v>
+        <v>0.03273029479354474</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2860,19 +2860,19 @@
         <v>2685</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1099</v>
+        <v>1205</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5437</v>
+        <v>5428</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01172964334793368</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004799646612958498</v>
+        <v>0.005265641748073893</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02375122243742628</v>
+        <v>0.02371102163247506</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -2881,19 +2881,19 @@
         <v>5254</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2899</v>
+        <v>2667</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>9445</v>
+        <v>9416</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.01210344448428912</v>
+        <v>0.01210344448428911</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006677613359396138</v>
+        <v>0.006144389947940115</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02175844114849843</v>
+        <v>0.02169181670441665</v>
       </c>
     </row>
     <row r="35">
@@ -2910,19 +2910,19 @@
         <v>3353</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1299</v>
+        <v>1138</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7088</v>
+        <v>7358</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01634249266194417</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.006331843573976777</v>
+        <v>0.00554451280432986</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03454431674715402</v>
+        <v>0.0358588463436968</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -2931,19 +2931,19 @@
         <v>6774</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4023</v>
+        <v>4117</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11071</v>
+        <v>11347</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02958979269595385</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01757396284325705</v>
+        <v>0.01798440551806072</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04836416119618057</v>
+        <v>0.04956627719905705</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>23</v>
@@ -2952,19 +2952,19 @@
         <v>10127</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6421</v>
+        <v>6784</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15530</v>
+        <v>15296</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0233283186421148</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01479258147365587</v>
+        <v>0.01562762243131013</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03577459434196032</v>
+        <v>0.03523712496660335</v>
       </c>
     </row>
     <row r="36">
@@ -2981,19 +2981,19 @@
         <v>62068</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>51701</v>
+        <v>50995</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>75229</v>
+        <v>74140</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3025021142246171</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2519781210180509</v>
+        <v>0.2485364405148465</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3666492896844835</v>
+        <v>0.3613401783237001</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>114</v>
@@ -3002,19 +3002,19 @@
         <v>53678</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>45754</v>
+        <v>44602</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>64078</v>
+        <v>62637</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2344842963120528</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1998727943022344</v>
+        <v>0.194836812179826</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.279917474624838</v>
+        <v>0.2736238060177774</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>203</v>
@@ -3023,19 +3023,19 @@
         <v>115745</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>102391</v>
+        <v>102607</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>131423</v>
+        <v>131067</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2666336249273089</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2358690940514333</v>
+        <v>0.2363669992891507</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3027484953481218</v>
+        <v>0.3019287284934524</v>
       </c>
     </row>
     <row r="37">
@@ -3052,19 +3052,19 @@
         <v>87405</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>74848</v>
+        <v>75377</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>100246</v>
+        <v>99865</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.4259919977909165</v>
+        <v>0.4259919977909163</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3647902701230127</v>
+        <v>0.3673683082185294</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4885737411810746</v>
+        <v>0.4867178688607082</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>227</v>
@@ -3073,19 +3073,19 @@
         <v>107953</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>97211</v>
+        <v>97305</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>119192</v>
+        <v>119465</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4715784691702512</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4246539583325334</v>
+        <v>0.4250652726084264</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5206761255323957</v>
+        <v>0.5218682946798215</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>342</v>
@@ -3094,19 +3094,19 @@
         <v>195358</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>178618</v>
+        <v>179292</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>212030</v>
+        <v>212302</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4500315496458969</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4114693843044975</v>
+        <v>0.4130199884955014</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4884370774403406</v>
+        <v>0.4890628352699085</v>
       </c>
     </row>
     <row r="38">
@@ -3123,19 +3123,19 @@
         <v>180895</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>171226</v>
+        <v>171439</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>188300</v>
+        <v>188178</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8816341517838678</v>
+        <v>0.8816341517838676</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8345111403851122</v>
+        <v>0.8355519235204042</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9177247985165091</v>
+        <v>0.9171333490505483</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>474</v>
@@ -3144,19 +3144,19 @@
         <v>216270</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>206313</v>
+        <v>206812</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>220922</v>
+        <v>221010</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9447478433731094</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9012518390064269</v>
+        <v>0.9034340813436296</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9650709451066533</v>
+        <v>0.9654564790412484</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>718</v>
@@ -3165,19 +3165,19 @@
         <v>397164</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>385284</v>
+        <v>386216</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>405674</v>
+        <v>407139</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.914916501038182</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8875487836025084</v>
+        <v>0.8896950817793597</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9345194656226152</v>
+        <v>0.937894879532321</v>
       </c>
     </row>
     <row r="39">
@@ -3245,19 +3245,19 @@
         <v>13163</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9170</v>
+        <v>8899</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18242</v>
+        <v>18166</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04862368636878128</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03387561848290145</v>
+        <v>0.03287389708486776</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06738665503303093</v>
+        <v>0.06710615195561745</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>50</v>
@@ -3266,19 +3266,19 @@
         <v>18283</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>14184</v>
+        <v>13700</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>24672</v>
+        <v>24167</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.06931891372715808</v>
+        <v>0.06931891372715807</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05377716038040693</v>
+        <v>0.05194464557202857</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09354146068409901</v>
+        <v>0.09162796030489624</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>82</v>
@@ -3287,19 +3287,19 @@
         <v>31446</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>24692</v>
+        <v>25424</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>39476</v>
+        <v>39720</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05883661180040809</v>
+        <v>0.05883661180040808</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04620011816713162</v>
+        <v>0.04756949060570033</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07386122322472029</v>
+        <v>0.07431894973838211</v>
       </c>
     </row>
     <row r="41">
@@ -3316,19 +3316,19 @@
         <v>8437</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5254</v>
+        <v>5104</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13111</v>
+        <v>13218</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.03116793602232992</v>
+        <v>0.03116793602232991</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01940926419745341</v>
+        <v>0.01885610867930903</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0484318363043958</v>
+        <v>0.04882810273287343</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>25</v>
@@ -3337,19 +3337,19 @@
         <v>12769</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>8165</v>
+        <v>7967</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>19098</v>
+        <v>19481</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.04841186641646027</v>
+        <v>0.04841186641646025</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03095790112047837</v>
+        <v>0.03020477088293393</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07241049581383757</v>
+        <v>0.07386172681538039</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>44</v>
@@ -3358,19 +3358,19 @@
         <v>21206</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>14859</v>
+        <v>15236</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>28612</v>
+        <v>29082</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03967767463083725</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02780139968777168</v>
+        <v>0.02850832288652801</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05353381485005228</v>
+        <v>0.05441458128867062</v>
       </c>
     </row>
     <row r="42">
@@ -3387,19 +3387,19 @@
         <v>8523</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5211</v>
+        <v>5041</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14091</v>
+        <v>13727</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.03148296092290747</v>
+        <v>0.03148296092290746</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01924843875843892</v>
+        <v>0.01862324684661734</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05205145906465704</v>
+        <v>0.0507091755738826</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>35</v>
@@ -3408,19 +3408,19 @@
         <v>12154</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>8803</v>
+        <v>8754</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>17425</v>
+        <v>17660</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.04608236042625625</v>
+        <v>0.04608236042625624</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03337751815567302</v>
+        <v>0.0331890711062779</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06606651284485669</v>
+        <v>0.0669577076341818</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>52</v>
@@ -3429,19 +3429,19 @@
         <v>20677</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>15357</v>
+        <v>15405</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>26887</v>
+        <v>27356</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03868764516687536</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02873327979660628</v>
+        <v>0.02882377018712461</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05030737415899608</v>
+        <v>0.05118401943506966</v>
       </c>
     </row>
     <row r="43">
@@ -3458,19 +3458,19 @@
         <v>137188</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>122001</v>
+        <v>122892</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>152039</v>
+        <v>153011</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.506776393914293</v>
+        <v>0.5067763939142931</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4506757451177403</v>
+        <v>0.4539665229143274</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.5616357910921012</v>
+        <v>0.5652291927011228</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>164</v>
@@ -3479,19 +3479,19 @@
         <v>100402</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>88433</v>
+        <v>89331</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>113514</v>
+        <v>114453</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.3806704009215732</v>
+        <v>0.3806704009215729</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3352906401086059</v>
+        <v>0.3386970059508579</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4303852353733123</v>
+        <v>0.4339443886383584</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>352</v>
@@ -3500,19 +3500,19 @@
         <v>237590</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>218514</v>
+        <v>218446</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>256542</v>
+        <v>257168</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.444544117814432</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4088522903688093</v>
+        <v>0.4087246895706066</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4800058039306024</v>
+        <v>0.4811758658464634</v>
       </c>
     </row>
     <row r="44">
@@ -3529,19 +3529,19 @@
         <v>57104</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>45542</v>
+        <v>46205</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>70835</v>
+        <v>70779</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2109453212004488</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1682343626733553</v>
+        <v>0.1706809427727891</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2616664147659916</v>
+        <v>0.2614600208618174</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>77</v>
@@ -3550,19 +3550,19 @@
         <v>63077</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>51687</v>
+        <v>50472</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>76714</v>
+        <v>74983</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.2391559201592287</v>
+        <v>0.2391559201592285</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1959709796477906</v>
+        <v>0.1913611634514082</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2908587684842055</v>
+        <v>0.2842939180372303</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>139</v>
@@ -3571,19 +3571,19 @@
         <v>120182</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>101735</v>
+        <v>102169</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>137768</v>
+        <v>137360</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.224867021047391</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.190351797348104</v>
+        <v>0.1911642489378607</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2577724775956636</v>
+        <v>0.2570093284176007</v>
       </c>
     </row>
     <row r="45">
@@ -3600,19 +3600,19 @@
         <v>209402</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>196942</v>
+        <v>197298</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>222029</v>
+        <v>220288</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.773539082609746</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7275099019496404</v>
+        <v>0.7288243508087445</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8201836589507006</v>
+        <v>0.8137514850294671</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>410</v>
@@ -3621,19 +3621,19 @@
         <v>242112</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>234950</v>
+        <v>234810</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>247827</v>
+        <v>247625</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.9179616592626982</v>
+        <v>0.9179616592626979</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.8908075016977989</v>
+        <v>0.8902743300604705</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.9396283223211361</v>
+        <v>0.9388636711533751</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>693</v>
@@ -3642,19 +3642,19 @@
         <v>451515</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>435796</v>
+        <v>437754</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>464471</v>
+        <v>465574</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.8448104429315247</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.815399993359939</v>
+        <v>0.8190630832520549</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.8690518648246589</v>
+        <v>0.8711160305874411</v>
       </c>
     </row>
     <row r="46">
@@ -3675,19 +3675,19 @@
         <v>21605</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>12751</v>
+        <v>12377</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>38022</v>
+        <v>36414</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03002054504513053</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0177172930294974</v>
+        <v>0.01719833535466502</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05283193612987622</v>
+        <v>0.05059634175443892</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>21</v>
@@ -3696,19 +3696,19 @@
         <v>23797</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>14175</v>
+        <v>14775</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>37224</v>
+        <v>38101</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0308224938827821</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01836054816435672</v>
+        <v>0.01913683188953424</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04821426388222433</v>
+        <v>0.04935019647795132</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>37</v>
@@ -3717,19 +3717,19 @@
         <v>45402</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>32107</v>
+        <v>31965</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>65421</v>
+        <v>65309</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0304355962239578</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02152281060326851</v>
+        <v>0.02142804510452326</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04385533858715472</v>
+        <v>0.04377998518270896</v>
       </c>
     </row>
     <row r="47">
@@ -3746,19 +3746,19 @@
         <v>20618</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>13907</v>
+        <v>13421</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>31529</v>
+        <v>30642</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02864835805345786</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01932436369847846</v>
+        <v>0.01864863758989481</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04380863226055021</v>
+        <v>0.04257668651875399</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>32</v>
@@ -3767,19 +3767,19 @@
         <v>21396</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>14976</v>
+        <v>15226</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>29727</v>
+        <v>30777</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02771269400684135</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01939771229522994</v>
+        <v>0.01972108360674006</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03850398550867064</v>
+        <v>0.0398635004206629</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>53</v>
@@ -3788,19 +3788,19 @@
         <v>42014</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>31540</v>
+        <v>31914</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>55200</v>
+        <v>55251</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02816410214173198</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02114322920096244</v>
+        <v>0.02139386209970745</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03700344931899392</v>
+        <v>0.03703799615382398</v>
       </c>
     </row>
     <row r="48">
@@ -3817,19 +3817,19 @@
         <v>28362</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>18078</v>
+        <v>18808</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>42290</v>
+        <v>42439</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.03940889962884846</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.02511967049712888</v>
+        <v>0.02613367431171387</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05876162259089613</v>
+        <v>0.05896922352212241</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>57</v>
@@ -3838,19 +3838,19 @@
         <v>41491</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>31758</v>
+        <v>31335</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>52256</v>
+        <v>54606</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.05374064220390197</v>
+        <v>0.05374064220390198</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.04113480850796492</v>
+        <v>0.04058594377155283</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.06768355470894374</v>
+        <v>0.07072769064243434</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>81</v>
@@ -3859,19 +3859,19 @@
         <v>69853</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>55179</v>
+        <v>55705</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>88946</v>
+        <v>90964</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.04682633871117726</v>
+        <v>0.04682633871117727</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03698957618737258</v>
+        <v>0.0373422953809937</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.05962554392637882</v>
+        <v>0.06097800185128729</v>
       </c>
     </row>
     <row r="49">
@@ -3888,19 +3888,19 @@
         <v>15572</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>9168</v>
+        <v>9376</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>24493</v>
+        <v>25324</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02163743069508332</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01273897654895033</v>
+        <v>0.01302741482737182</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.03403350183154846</v>
+        <v>0.03518797118709958</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>19</v>
@@ -3909,19 +3909,19 @@
         <v>12948</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7978</v>
+        <v>8068</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>19744</v>
+        <v>20276</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01677095945400611</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01033376108175478</v>
+        <v>0.01044969242847361</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02557307819550724</v>
+        <v>0.02626274314811515</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>35</v>
@@ -3930,19 +3930,19 @@
         <v>28520</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>19959</v>
+        <v>19364</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>39133</v>
+        <v>38713</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.0191187729821387</v>
+        <v>0.01911877298213871</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01337937617948282</v>
+        <v>0.0129805939448258</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02623290983926768</v>
+        <v>0.02595136608849067</v>
       </c>
     </row>
     <row r="50">
@@ -3959,19 +3959,19 @@
         <v>315838</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>284582</v>
+        <v>286047</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>349129</v>
+        <v>346145</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4388542171063382</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3954245384754088</v>
+        <v>0.3974606102744545</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4851126723911822</v>
+        <v>0.4809666973133754</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>233</v>
@@ -3980,19 +3980,19 @@
         <v>182509</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>160409</v>
+        <v>162048</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>203907</v>
+        <v>204224</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.236392840647035</v>
+        <v>0.2363928406470351</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2077685095397633</v>
+        <v>0.2098913377802552</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2641089399619342</v>
+        <v>0.2645196691748668</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>523</v>
@@ -4001,19 +4001,19 @@
         <v>498346</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>463962</v>
+        <v>458380</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>533647</v>
+        <v>534143</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3340696859478365</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3110195382667264</v>
+        <v>0.307277732111495</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3577338817023172</v>
+        <v>0.3580659546247041</v>
       </c>
     </row>
     <row r="51">
@@ -4030,19 +4030,19 @@
         <v>208562</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>178190</v>
+        <v>178047</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>239709</v>
+        <v>239380</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.2897959683556011</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2475938832132349</v>
+        <v>0.2473944908382402</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.33307426276597</v>
+        <v>0.3326167794603914</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>211</v>
@@ -4051,19 +4051,19 @@
         <v>209568</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>184353</v>
+        <v>181452</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>235942</v>
+        <v>233051</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.2714410377274835</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.2387811738679131</v>
+        <v>0.235023487944701</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.3056017600746608</v>
+        <v>0.3018573006645032</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>348</v>
@@ -4072,19 +4072,19 @@
         <v>418130</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>380581</v>
+        <v>380734</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>460721</v>
+        <v>459716</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2802963154640249</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.2551250408571593</v>
+        <v>0.2552271113710057</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.3088475310096097</v>
+        <v>0.3081731904515289</v>
       </c>
     </row>
     <row r="52">
@@ -4101,19 +4101,19 @@
         <v>522928</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>492689</v>
+        <v>491704</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>549721</v>
+        <v>550010</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.726604105343738</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.6845874603661909</v>
+        <v>0.6832190724426329</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.7638337354629452</v>
+        <v>0.764235386155398</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>865</v>
@@ -4122,19 +4122,19 @@
         <v>677877</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>656360</v>
+        <v>656020</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>696899</v>
+        <v>696380</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.8780137620863465</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.8501449313715169</v>
+        <v>0.849704284473774</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.902652285881657</v>
+        <v>0.9019802989521994</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1311</v>
@@ -4143,19 +4143,19 @@
         <v>1200804</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1162579</v>
+        <v>1166680</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1233258</v>
+        <v>1233496</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.8049666561280008</v>
+        <v>0.804966656128001</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.7793419132485575</v>
+        <v>0.7820915624323252</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.826722508027863</v>
+        <v>0.8268816237348895</v>
       </c>
     </row>
     <row r="53">
@@ -4176,19 +4176,19 @@
         <v>7139</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2991</v>
+        <v>2957</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>16469</v>
+        <v>15420</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.00894564902193625</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.003747874333889832</v>
+        <v>0.003705753345041757</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02063598513804885</v>
+        <v>0.01932132737012292</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>4</v>
@@ -4197,19 +4197,19 @@
         <v>3163</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>8165</v>
+        <v>7476</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.00380468013692392</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.00117161718220347</v>
+        <v>0.001149652642887352</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.009821025697483434</v>
+        <v>0.008993316214974565</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>10</v>
@@ -4218,19 +4218,19 @@
         <v>10302</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>4814</v>
+        <v>4946</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>19410</v>
+        <v>19469</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.006322695578915767</v>
+        <v>0.006322695578915766</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.002954605061026344</v>
+        <v>0.003035739869943098</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01191243734545155</v>
+        <v>0.01194871467459994</v>
       </c>
     </row>
     <row r="54">
@@ -4247,19 +4247,19 @@
         <v>13267</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7429</v>
+        <v>8174</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>20719</v>
+        <v>20685</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01662368918997222</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.009308481235964594</v>
+        <v>0.01024168876149132</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.02596121096104542</v>
+        <v>0.02591909683931439</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>36</v>
@@ -4268,19 +4268,19 @@
         <v>23256</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>16625</v>
+        <v>16301</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>31574</v>
+        <v>31572</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.02797426738908972</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01999790674000025</v>
+        <v>0.01960866768898915</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.03797960388834679</v>
+        <v>0.03797748540137844</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>53</v>
@@ -4289,19 +4289,19 @@
         <v>36523</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>27919</v>
+        <v>27187</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>47945</v>
+        <v>48156</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.02241482289133425</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.0171345302436734</v>
+        <v>0.0166850828999203</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.029424697917026</v>
+        <v>0.02955439920580076</v>
       </c>
     </row>
     <row r="55">
@@ -4318,19 +4318,19 @@
         <v>11766</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>6299</v>
+        <v>6355</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>19131</v>
+        <v>18987</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01474283784898669</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.007892661263868355</v>
+        <v>0.007963331032637067</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.02397193675799886</v>
+        <v>0.02379070629605579</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>31</v>
@@ -4339,19 +4339,19 @@
         <v>20375</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>13765</v>
+        <v>13718</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>29398</v>
+        <v>28934</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.02450916382769257</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.01655757829362295</v>
+        <v>0.01650123558772556</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.03536243116232675</v>
+        <v>0.03480481823803715</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>46</v>
@@ -4360,19 +4360,19 @@
         <v>32141</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>23344</v>
+        <v>23370</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>42806</v>
+        <v>43073</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.01972567647813851</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01432664171413478</v>
+        <v>0.01434298150431067</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.02627122561877994</v>
+        <v>0.02643462693185188</v>
       </c>
     </row>
     <row r="56">
@@ -4389,19 +4389,19 @@
         <v>4447</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1976</v>
+        <v>1989</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>9789</v>
+        <v>9493</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.005571928117543931</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.002475791980806731</v>
+        <v>0.002492743882353395</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01226595855258216</v>
+        <v>0.01189476407109893</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>16</v>
@@ -4410,19 +4410,19 @@
         <v>11452</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>6526</v>
+        <v>6657</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>18091</v>
+        <v>18247</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01377605946136855</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.007849973768484887</v>
+        <v>0.008007428531623634</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02176104477513112</v>
+        <v>0.02194871903938382</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>22</v>
@@ -4431,19 +4431,19 @@
         <v>15899</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10168</v>
+        <v>9869</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>23888</v>
+        <v>23536</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.009757725588135981</v>
+        <v>0.009757725588135983</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.006240105805332119</v>
+        <v>0.006056652478930658</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.0146602969695178</v>
+        <v>0.0144444316507964</v>
       </c>
     </row>
     <row r="57">
@@ -4460,19 +4460,19 @@
         <v>439532</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>407962</v>
+        <v>406750</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>469734</v>
+        <v>470028</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.5507418209953244</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5111848439833582</v>
+        <v>0.5096652787708925</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5885864460555281</v>
+        <v>0.5889549105909168</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>69</v>
@@ -4481,19 +4481,19 @@
         <v>52769</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>41014</v>
+        <v>41759</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>65735</v>
+        <v>66464</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.06347520839450517</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.04933574228842252</v>
+        <v>0.05023138022269546</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.0790722794004954</v>
+        <v>0.07994936716518054</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>532</v>
@@ -4502,19 +4502,19 @@
         <v>492300</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>459050</v>
+        <v>456395</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>529637</v>
+        <v>528580</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.3021354458592528</v>
+        <v>0.3021354458592529</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.2817287907455367</v>
+        <v>0.2800997463465809</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.3250500221562708</v>
+        <v>0.3244011208040821</v>
       </c>
     </row>
     <row r="58">
@@ -4531,19 +4531,19 @@
         <v>210061</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>183820</v>
+        <v>182041</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>240339</v>
+        <v>240630</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.2632110083680689</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.2303297784975778</v>
+        <v>0.2281011075068123</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.3011495372309161</v>
+        <v>0.3015139208012251</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>188</v>
@@ -4552,19 +4552,19 @@
         <v>179534</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>157945</v>
+        <v>156879</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>205657</v>
+        <v>204840</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.2159599194278328</v>
+        <v>0.2159599194278327</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.1899899511937653</v>
+        <v>0.1887082492799542</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.2473832514579925</v>
+        <v>0.2463996470707895</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>342</v>
@@ -4573,19 +4573,19 @@
         <v>389595</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>352096</v>
+        <v>352055</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>426861</v>
+        <v>428384</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.2391032167835722</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.2160889299890119</v>
+        <v>0.216063707053664</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.2619738437740313</v>
+        <v>0.2629082891230022</v>
       </c>
     </row>
     <row r="59">
@@ -4602,19 +4602,19 @@
         <v>345719</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>316412</v>
+        <v>315042</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>375260</v>
+        <v>375879</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.4331927565169927</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.3964703456746688</v>
+        <v>0.3947537817140035</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.4702083674060767</v>
+        <v>0.4709840055142232</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>1003</v>
@@ -4623,19 +4623,19 @@
         <v>770160</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>751685</v>
+        <v>751847</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>784327</v>
+        <v>783791</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.9264185085371734</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.9041945000867111</v>
+        <v>0.9043895197078941</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.9434588241664829</v>
+        <v>0.9428147316170216</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>1329</v>
@@ -4644,19 +4644,19 @@
         <v>1115880</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>1076966</v>
+        <v>1074435</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>1156914</v>
+        <v>1149848</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.6848395206550328</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.6609571840146655</v>
+        <v>0.6594041608139438</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.7100232575966599</v>
+        <v>0.7056868244957746</v>
       </c>
     </row>
     <row r="60">
@@ -4677,19 +4677,19 @@
         <v>37304</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>25705</v>
+        <v>25129</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>54543</v>
+        <v>52274</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.01056275067239314</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.00727853887608288</v>
+        <v>0.007115324023655075</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.01544384052330096</v>
+        <v>0.01480137873863271</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>35</v>
@@ -4698,19 +4698,19 @@
         <v>33324</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>23000</v>
+        <v>22720</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>49610</v>
+        <v>48195</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.008920425687357155</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.006156784967329851</v>
+        <v>0.006081799675423626</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.01327999303877002</v>
+        <v>0.01290106367126481</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>67</v>
@@ -4719,19 +4719,19 @@
         <v>70628</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>55632</v>
+        <v>54345</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>94443</v>
+        <v>90919</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.009718533074497448</v>
+        <v>0.00971853307449745</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.00765496693751728</v>
+        <v>0.007477944193104139</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.01299541564684864</v>
+        <v>0.0125105009767405</v>
       </c>
     </row>
     <row r="61">
@@ -4748,19 +4748,19 @@
         <v>106749</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>90655</v>
+        <v>90087</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>126913</v>
+        <v>125797</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.03022617796396665</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.02566911227969762</v>
+        <v>0.02550841957791017</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.03593580649560927</v>
+        <v>0.03561959450647068</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>298</v>
@@ -4769,19 +4769,19 @@
         <v>158638</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>141054</v>
+        <v>140279</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>178464</v>
+        <v>177120</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.04246524877948674</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.03775819779883305</v>
+        <v>0.03755090880979461</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.04777250185007053</v>
+        <v>0.04741277073446185</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>446</v>
@@ -4790,19 +4790,19 @@
         <v>265387</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>240768</v>
+        <v>239267</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>292763</v>
+        <v>293652</v>
       </c>
       <c r="U61" s="6" t="n">
-        <v>0.03651752654509246</v>
+        <v>0.03651752654509247</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.03313003311838535</v>
+        <v>0.03292345146399262</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.04028452132586065</v>
+        <v>0.040406821687683</v>
       </c>
     </row>
     <row r="62">
@@ -4819,19 +4819,19 @@
         <v>103927</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>85425</v>
+        <v>85341</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>127816</v>
+        <v>127856</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.02942712693183447</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.0241882333306379</v>
+        <v>0.02416439059867408</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.03619139624328958</v>
+        <v>0.0362026724435433</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>227</v>
@@ -4840,19 +4840,19 @@
         <v>137872</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>120840</v>
+        <v>117923</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>160216</v>
+        <v>159095</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.03690658681923908</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.03234714416498347</v>
+        <v>0.0315665311109557</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.04288759910046998</v>
+        <v>0.04258775700192215</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>350</v>
@@ -4861,19 +4861,19 @@
         <v>241799</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>216929</v>
+        <v>216057</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>271053</v>
+        <v>270605</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.03327185420398489</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.0298497194843199</v>
+        <v>0.02972976473708566</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.03729726621372113</v>
+        <v>0.03723553474181183</v>
       </c>
     </row>
     <row r="63">
@@ -4890,19 +4890,19 @@
         <v>61849</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>48668</v>
+        <v>49723</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>78763</v>
+        <v>81078</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.01751271256296945</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.01378056500794678</v>
+        <v>0.01407916786205429</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.02230196074124071</v>
+        <v>0.02295733407109047</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>174</v>
@@ -4911,19 +4911,19 @@
         <v>88518</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>75708</v>
+        <v>76221</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>103630</v>
+        <v>104396</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.02369516945917878</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.02026599933833883</v>
+        <v>0.02040324928141576</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.02774028896986102</v>
+        <v>0.02794532562455269</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>255</v>
@@ -4932,19 +4932,19 @@
         <v>150367</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>131532</v>
+        <v>130794</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>172742</v>
+        <v>171251</v>
       </c>
       <c r="U63" s="6" t="n">
-        <v>0.02069073089525288</v>
+        <v>0.02069073089525289</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.0180989167348881</v>
+        <v>0.01799742098249282</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.0237695192801975</v>
+        <v>0.02356427663386767</v>
       </c>
     </row>
     <row r="64">
@@ -4961,19 +4961,19 @@
         <v>1738118</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>1676617</v>
+        <v>1675147</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>1808273</v>
+        <v>1806158</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.4921520294218328</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.4747378781784632</v>
+        <v>0.4743216722758248</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.5120166419398764</v>
+        <v>0.5114175633552323</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>1206</v>
@@ -4982,19 +4982,19 @@
         <v>831338</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>783931</v>
+        <v>790958</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>872219</v>
+        <v>877602</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.2225383448961876</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.2098479527136888</v>
+        <v>0.2117291406404459</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.2334815085995864</v>
+        <v>0.2349225061719885</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>2979</v>
@@ -5003,19 +5003,19 @@
         <v>2569457</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>2489182</v>
+        <v>2487784</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>2652087</v>
+        <v>2655005</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.3535603260842261</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.3425145153727588</v>
+        <v>0.3423221061707669</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.3649303721448481</v>
+        <v>0.3653319287485291</v>
       </c>
     </row>
     <row r="65">
@@ -5032,19 +5032,19 @@
         <v>974134</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>915407</v>
+        <v>909792</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>1040892</v>
+        <v>1036587</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.2758283500224135</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.2591995757924219</v>
+        <v>0.2576096285897158</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.2947308874621247</v>
+        <v>0.293511964059593</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>1155</v>
@@ -5053,19 +5053,19 @@
         <v>948922</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>893856</v>
+        <v>899325</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>996686</v>
+        <v>1003799</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.2540140009972114</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.2392733741726286</v>
+        <v>0.24073735149216</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.2667997688225335</v>
+        <v>0.2687036672757505</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>1910</v>
@@ -5074,19 +5074,19 @@
         <v>1923057</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>1834645</v>
+        <v>1841164</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>2006286</v>
+        <v>2003528</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.2646149437224961</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.2524493689353373</v>
+        <v>0.2533463970216558</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.2760674073636368</v>
+        <v>0.2756879407140926</v>
       </c>
     </row>
     <row r="66">
@@ -5103,19 +5103,19 @@
         <v>2312557</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.6548057754573988</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>4937</v>
@@ -5124,19 +5124,19 @@
         <v>3385923</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.9063669999452783</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>7164</v>
@@ -5145,19 +5145,19 @@
         <v>5698481</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
       <c r="U66" s="6" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="67">
